--- a/xlsx/洪都拉斯_intext.xlsx
+++ b/xlsx/洪都拉斯_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="704">
   <si>
     <t>洪都拉斯</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF_(%E8%97%9D%E4%BA%BA)</t>
   </si>
   <si>
-    <t>洪都拉斯 (藝人)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_洪都拉斯</t>
+    <t>洪都拉斯 (艺人)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_洪都拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>洪都拉斯國旗</t>
+    <t>洪都拉斯国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E5%9C%8B%E5%BE%BD</t>
   </si>
   <si>
-    <t>洪都拉斯國徽</t>
+    <t>洪都拉斯国徽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%BC%E8%A8%80%E5%88%97%E8%A1%A8</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%82%A8%E7%9A%84%E6%97%97%E6%98%AF%E5%A4%A9%E5%9B%BD%E4%B9%8B%E5%85%89</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -89,13 +89,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CST</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2017%E5%B9%B4</t>
@@ -137,15 +137,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>西班牙語</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
   </si>
   <si>
@@ -161,7 +158,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99</t>
@@ -179,37 +176,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
   </si>
   <si>
-    <t>電</t>
+    <t>电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>家用電源列表</t>
+    <t>家用电源列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
   </si>
   <si>
-    <t>頻率</t>
+    <t>频率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>共和立憲制</t>
+    <t>共和立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
@@ -221,7 +218,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E6%80%BB%E7%BB%9F</t>
@@ -239,19 +236,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -269,7 +266,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4</t>
@@ -293,7 +290,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.hn</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2</t>
@@ -323,19 +320,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>危地馬拉</t>
+    <t>危地马拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E7%88%BE%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>薩爾瓦多</t>
+    <t>萨尔瓦多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%8A%A0%E6%8B%89%E7%93%9C</t>
@@ -359,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%B5%9D%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>天鵝群島</t>
+    <t>天鹅群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%E6%89%98%E5%BC%97%C2%B7%E5%93%A5%E4%BC%A6%E5%B8%83</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%9B%85%E6%96%87%E6%98%8E</t>
   </si>
   <si>
-    <t>馬雅文明</t>
+    <t>马雅文明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E5%B8%83</t>
@@ -389,19 +386,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%81%A3%E7%BE%A4%E5%B3%B6%E7%9C%81</t>
   </si>
   <si>
-    <t>海灣群島省</t>
+    <t>海湾群岛省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%9C%E5%9C%B0%E9%A6%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>瓜地馬拉</t>
+    <t>瓜地马拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%AC%AC%E4%B8%80%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>墨西哥第一帝國</t>
+    <t>墨西哥第一帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E8%81%94%E9%82%A6</t>
@@ -503,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>足球戰爭</t>
+    <t>足球战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1970%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>1970年世界盃足球賽</t>
+    <t>1970年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E5%B8%A6</t>
@@ -533,7 +530,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>工業</t>
+    <t>工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E5%80%BA</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%B2%A8%E5%B9%A3%E5%9F%BA%E9%87%91</t>
   </si>
   <si>
-    <t>國際貨幣基金</t>
+    <t>国际货币基金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%8F%A4%E6%96%AF%E5%8A%A0%E5%B7%B4</t>
@@ -563,7 +560,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2</t>
   </si>
   <si>
-    <t>世界遺產</t>
+    <t>世界遗产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%BD%98</t>
@@ -575,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%9B%85</t>
   </si>
   <si>
-    <t>馬雅</t>
+    <t>马雅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%8B%89%E5%A1%94%E8%AF%BA%E6%B2%B3%E7%94%9F%E7%89%A9%E5%9C%88%E4%BF%9D%E6%8A%A4%E5%8C%BA</t>
@@ -611,7 +608,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%89%B9%E8%98%AD%E8%92%82%E9%81%94%E7%9C%81</t>
   </si>
   <si>
-    <t>阿特蘭蒂達省</t>
+    <t>阿特兰蒂达省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%A1%9E%E7%93%A6</t>
@@ -623,13 +620,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E7%9B%A7%E7%89%B9%E5%8D%A1%E7%9C%81</t>
   </si>
   <si>
-    <t>喬盧特卡省</t>
+    <t>乔卢特卡省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E7%9B%A7%E7%89%B9%E5%8D%A1</t>
   </si>
   <si>
-    <t>喬盧特卡</t>
+    <t>乔卢特卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%9A%86%E7%9C%81_(%E5%AE%8F%E9%83%BD%E6%8B%89%E6%96%AF)</t>
@@ -641,13 +638,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E9%AD%AF%E5%B8%8C%E7%95%A5_(%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF)</t>
   </si>
   <si>
-    <t>特魯希略 (洪都拉斯)</t>
+    <t>特鲁希略 (洪都拉斯)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%A6%AC%E4%BA%9E%E7%93%9C%E7%9C%81</t>
   </si>
   <si>
-    <t>科馬亞瓜省</t>
+    <t>科马亚瓜省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E9%A9%AC%E4%BA%9A%E7%93%9C</t>
@@ -665,13 +662,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%BE%85%E8%8E%8E</t>
   </si>
   <si>
-    <t>聖羅莎</t>
+    <t>圣罗莎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%88%BE%E7%89%B9%E6%96%AF%E7%9C%81</t>
   </si>
   <si>
-    <t>科爾特斯省</t>
+    <t>科尔特斯省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E4%BD%A9%E5%BE%B7%E7%BD%97%E8%8B%8F%E6%8B%89</t>
@@ -683,13 +680,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%88%BE%E5%B8%95%E6%8B%89%E4%BC%8A%E7%B4%A2%E7%9C%81</t>
   </si>
   <si>
-    <t>埃爾帕拉伊索省</t>
+    <t>埃尔帕拉伊索省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%A4%E6%96%AF%E5%8D%A1%E8%98%AD</t>
   </si>
   <si>
-    <t>尤斯卡蘭</t>
+    <t>尤斯卡兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%E7%A7%91-%E8%8E%AB%E6%8B%89%E6%A1%91%E7%9C%81</t>
@@ -707,7 +704,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E7%9A%AE%E6%8B%89%E6%B8%AF</t>
   </si>
   <si>
-    <t>倫皮拉港</t>
+    <t>伦皮拉港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E8%92%82%E5%B8%83%E5%8D%A1%E7%9C%81</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%9F%83%E6%96%AF%E4%BD%A9%E8%98%AD%E8%96%A9</t>
   </si>
   <si>
-    <t>拉埃斯佩蘭薩</t>
+    <t>拉埃斯佩兰萨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E5%B7%B4%E6%96%AF%E7%9C%81_(%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF)</t>
@@ -737,13 +734,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%80%AB%E7%9A%AE%E6%8B%89%E7%9C%81</t>
   </si>
   <si>
-    <t>倫皮拉省</t>
+    <t>伦皮拉省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E8%A5%BF%E4%BA%9E%E6%96%AF</t>
   </si>
   <si>
-    <t>格拉西亞斯</t>
+    <t>格拉西亚斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E7%A7%91%E7%89%B9%E4%BD%A9%E5%85%8B%E7%9C%81</t>
@@ -755,19 +752,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A7%E7%A7%91%E7%89%B9%E4%BD%A9%E5%85%8B</t>
   </si>
   <si>
-    <t>新奧科特佩克</t>
+    <t>新奥科特佩克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E8%98%AD%E5%96%AC%E7%9C%81</t>
   </si>
   <si>
-    <t>奧蘭喬省</t>
+    <t>奥兰乔省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E5%B7%B4%E6%8B%89%E7%9C%81</t>
   </si>
   <si>
-    <t>聖巴巴拉省</t>
+    <t>圣巴巴拉省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%B1%E8%B0%B7%E7%9C%81_(%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF)</t>
@@ -779,19 +776,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E8%80%83%E6%A2%85</t>
   </si>
   <si>
-    <t>納考梅</t>
+    <t>纳考梅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BE%85%E7%9C%81</t>
   </si>
   <si>
-    <t>約羅省</t>
+    <t>约罗省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BE%85</t>
   </si>
   <si>
-    <t>約羅</t>
+    <t>约罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E5%9B%BD%E6%B0%91%E8%AE%AE%E4%BC%9A</t>
@@ -809,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E9%A1%98%E5%85%B5%E5%BD%B9%E5%88%B6</t>
   </si>
   <si>
-    <t>志願兵役制</t>
+    <t>志愿兵役制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
@@ -821,13 +818,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E5%9C%8B%E7%AB%8B%E8%87%AA%E6%B2%BB%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>洪都拉斯國立自治大學</t>
+    <t>洪都拉斯国立自治大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E9%83%BD%E6%8B%89%E6%96%AF%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>宏都拉斯天主教大學</t>
+    <t>宏都拉斯天主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%B3%E7%90%83</t>
@@ -839,31 +836,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E9%9A%8A</t>
   </si>
   <si>
-    <t>洪都拉斯國家足球隊</t>
+    <t>洪都拉斯国家足球队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E5%9C%8B%E5%AE%B6%E8%B6%B3%E7%90%83%E5%8D%94%E6%9C%83</t>
   </si>
   <si>
-    <t>洪都拉斯國家足球協會</t>
+    <t>洪都拉斯国家足球协会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1982%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>1982年世界盃足球賽</t>
+    <t>1982年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4%E4%B8%96%E7%95%8C%E7%9B%83%E8%B6%B3%E7%90%83%E8%B3%BD</t>
   </si>
   <si>
-    <t>2014年世界盃足球賽</t>
+    <t>2014年世界杯足球赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E%E6%B4%B2%E5%9C%8B%E5%AE%B6%E7%9B%83</t>
   </si>
   <si>
-    <t>中美洲國家盃</t>
+    <t>中美洲国家杯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Central_Intelligence_Agency</t>
@@ -887,7 +884,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%A6%82%E5%86%B5</t>
@@ -929,9 +926,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%BE%8E_(%E6%94%BF%E6%B2%BB%E5%9C%B0%E7%90%86%E5%AD%A6)</t>
   </si>
   <si>
@@ -959,9 +953,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E5%B0%94%E7%93%A6%E5%A4%9A</t>
   </si>
   <si>
-    <t>萨尔瓦多</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%BF%E9%A9%AC</t>
   </si>
   <si>
@@ -1001,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%8A%A0%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>多明尼加共和國</t>
+    <t>多明尼加共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%9E%97%E7%BA%B3%E8%BE%BE</t>
@@ -1025,7 +1016,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -1043,7 +1034,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E7%BE%8E%E6%B4%B2</t>
@@ -1061,7 +1052,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -1079,7 +1070,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
+    <t>哥伦比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E7%93%9C%E5%A4%9A%E5%B0%94</t>
@@ -1097,7 +1088,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%AD%AF</t>
   </si>
   <si>
-    <t>秘魯</t>
+    <t>秘鲁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -1109,7 +1100,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -1121,13 +1112,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%AC%E5%9C%B0</t>
   </si>
   <si>
-    <t>屬地</t>
+    <t>属地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%AD%E6%8B%89</t>
@@ -1139,25 +1130,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%AD%AF%E5%B7%B4</t>
   </si>
   <si>
-    <t>阿魯巴</t>
+    <t>阿鲁巴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%8B%89%E7%B4%A2</t>
   </si>
   <si>
-    <t>庫拉索</t>
+    <t>库拉索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>荷屬聖馬丁</t>
+    <t>荷属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E7%B6%AD%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>英屬維京群島</t>
+    <t>英属维京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BE%E6%85%95%E5%A4%A7</t>
@@ -1169,19 +1160,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%9B%BC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>開曼群島</t>
+    <t>开曼群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%85%8B%E8%98%AD%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>福克蘭群島</t>
+    <t>福克兰群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E5%9C%AD%E4%BA%9E%E9%82%A3</t>
   </si>
   <si>
-    <t>法屬圭亞那</t>
+    <t>法属圭亚那</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%99%B5%E5%85%B0</t>
@@ -1199,31 +1190,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8F%90%E5%B0%BC%E5%85%8B</t>
   </si>
   <si>
-    <t>馬提尼克</t>
+    <t>马提尼克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%B1%AC%E8%81%96%E9%A6%AC%E4%B8%81</t>
   </si>
   <si>
-    <t>法屬聖馬丁</t>
+    <t>法属圣马丁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%B7%B4%E6%B3%B0%E5%8B%92%E7%B1%B3%E5%B3%B6</t>
   </si>
   <si>
-    <t>聖巴泰勒米島</t>
+    <t>圣巴泰勒米岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A1%9E%E6%8B%89%E7%89%B9%E5%B3%B6</t>
   </si>
   <si>
-    <t>蒙塞拉特島</t>
+    <t>蒙塞拉特岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%BC%97%E6%B2%99%E5%B3%B6</t>
   </si>
   <si>
-    <t>納弗沙島</t>
+    <t>纳弗沙岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%9A%AE%E5%9F%83%E5%B0%94%E5%92%8C%E5%AF%86%E5%85%8B%E9%9A%86</t>
@@ -1253,7 +1244,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%9C%B0%E7%90%86%E7%B4%A2%E5%BC%95</t>
@@ -1271,7 +1262,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%9E%81%E6%B4%B2</t>
@@ -1283,7 +1274,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B4%8B%E6%B4%B2</t>
@@ -1349,9 +1340,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
   </si>
   <si>
@@ -1367,9 +1355,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
-    <t>玻利维亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E8%8C%A8%E7%93%A6%E7%BA%B3</t>
   </si>
   <si>
@@ -1379,7 +1364,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -1427,9 +1412,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
   </si>
   <si>
-    <t>哥伦比亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E6%91%A9</t>
   </si>
   <si>
@@ -1523,9 +1505,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
   </si>
   <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E5%86%85%E4%BA%9A</t>
   </si>
   <si>
@@ -1727,9 +1706,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%98%E9%B2%81</t>
   </si>
   <si>
-    <t>秘鲁</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
@@ -1907,7 +1883,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E5%B0%BC%E4%BA%9A%E5%92%8C%E9%BB%91%E5%A1%9E%E5%93%A5%E7%BB%B4%E9%82%A3</t>
@@ -1943,7 +1919,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
@@ -2021,7 +1997,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞</t>
+    <t>罗马尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%A9%AC%E5%8A%9B%E8%AF%BA</t>
@@ -2033,7 +2009,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>馬爾他騎士團</t>
+    <t>马尔他骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%81%93%E5%B0%94</t>
@@ -2069,49 +2045,46 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%8B%89%E5%9C%AD</t>
   </si>
   <si>
-    <t>烏拉圭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%B0%E7%BE%85%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>加泰羅尼亞語</t>
+    <t>加泰罗尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%AA%9E</t>
   </si>
   <si>
-    <t>法語</t>
+    <t>法语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E8%AA%9E</t>
   </si>
   <si>
-    <t>義大利語</t>
+    <t>义大利语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B0%BC%E4%BA%9E%E8%AA%9E</t>
   </si>
   <si>
-    <t>羅馬尼亞語</t>
+    <t>罗马尼亚语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2129,7 +2102,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -2141,13 +2114,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -3162,7 +3135,7 @@
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
         <v>7</v>
@@ -3188,10 +3161,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
         <v>43</v>
-      </c>
-      <c r="F24" t="s">
-        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -3217,10 +3190,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
         <v>45</v>
-      </c>
-      <c r="F25" t="s">
-        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>3</v>
@@ -3246,10 +3219,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s">
         <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -3275,10 +3248,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" t="s">
         <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>20</v>
@@ -3304,10 +3277,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" t="s">
         <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -3333,10 +3306,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" t="s">
         <v>53</v>
-      </c>
-      <c r="F29" t="s">
-        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3362,10 +3335,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F30" t="s">
         <v>55</v>
-      </c>
-      <c r="F30" t="s">
-        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -3391,10 +3364,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" t="s">
         <v>57</v>
-      </c>
-      <c r="F31" t="s">
-        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3420,10 +3393,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" t="s">
         <v>59</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3449,10 +3422,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -3478,10 +3451,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" t="s">
         <v>63</v>
-      </c>
-      <c r="F34" t="s">
-        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3507,10 +3480,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3536,10 +3509,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>2</v>
@@ -3565,10 +3538,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>4</v>
@@ -3594,10 +3567,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -3623,10 +3596,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -3652,10 +3625,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -3681,10 +3654,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3710,10 +3683,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>2</v>
@@ -3739,10 +3712,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>5</v>
@@ -3768,10 +3741,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3797,10 +3770,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>6</v>
@@ -3826,10 +3799,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3855,10 +3828,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3884,10 +3857,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3913,10 +3886,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3942,10 +3915,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3971,10 +3944,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>7</v>
@@ -4000,10 +3973,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4029,10 +4002,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>16</v>
@@ -4058,10 +4031,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -4087,10 +4060,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -4116,10 +4089,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>4</v>
@@ -4145,10 +4118,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>6</v>
@@ -4174,10 +4147,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -4203,10 +4176,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4232,10 +4205,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4261,10 +4234,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>116</v>
+      </c>
+      <c r="F61" t="s">
         <v>117</v>
-      </c>
-      <c r="F61" t="s">
-        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -4290,10 +4263,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" t="s">
         <v>119</v>
-      </c>
-      <c r="F62" t="s">
-        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -4319,10 +4292,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" t="s">
         <v>121</v>
-      </c>
-      <c r="F63" t="s">
-        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4348,10 +4321,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" t="s">
         <v>123</v>
-      </c>
-      <c r="F64" t="s">
-        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -4377,10 +4350,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
         <v>125</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4406,10 +4379,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>126</v>
+      </c>
+      <c r="F66" t="s">
         <v>127</v>
-      </c>
-      <c r="F66" t="s">
-        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4435,10 +4408,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>128</v>
+      </c>
+      <c r="F67" t="s">
         <v>129</v>
-      </c>
-      <c r="F67" t="s">
-        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -4464,10 +4437,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4493,10 +4466,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4522,10 +4495,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4551,10 +4524,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>8</v>
@@ -4580,10 +4553,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>138</v>
+      </c>
+      <c r="F72" t="s">
         <v>139</v>
-      </c>
-      <c r="F72" t="s">
-        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4609,10 +4582,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>140</v>
+      </c>
+      <c r="F73" t="s">
         <v>141</v>
-      </c>
-      <c r="F73" t="s">
-        <v>142</v>
       </c>
       <c r="G73" t="n">
         <v>7</v>
@@ -4638,10 +4611,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="F74" t="s">
         <v>143</v>
-      </c>
-      <c r="F74" t="s">
-        <v>144</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -4667,10 +4640,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" t="s">
         <v>145</v>
-      </c>
-      <c r="F75" t="s">
-        <v>146</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4696,10 +4669,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>146</v>
+      </c>
+      <c r="F76" t="s">
         <v>147</v>
-      </c>
-      <c r="F76" t="s">
-        <v>148</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4725,10 +4698,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F77" t="s">
         <v>149</v>
-      </c>
-      <c r="F77" t="s">
-        <v>150</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4754,10 +4727,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="F78" t="s">
-        <v>152</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -4783,10 +4756,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>152</v>
+      </c>
+      <c r="F79" t="s">
         <v>153</v>
-      </c>
-      <c r="F79" t="s">
-        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4812,10 +4785,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>154</v>
+      </c>
+      <c r="F80" t="s">
         <v>155</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4841,10 +4814,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>156</v>
+      </c>
+      <c r="F81" t="s">
         <v>157</v>
-      </c>
-      <c r="F81" t="s">
-        <v>158</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4870,10 +4843,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>158</v>
+      </c>
+      <c r="F82" t="s">
         <v>159</v>
-      </c>
-      <c r="F82" t="s">
-        <v>160</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4899,10 +4872,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F83" t="s">
         <v>161</v>
-      </c>
-      <c r="F83" t="s">
-        <v>162</v>
       </c>
       <c r="G83" t="n">
         <v>3</v>
@@ -4928,10 +4901,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>162</v>
+      </c>
+      <c r="F84" t="s">
         <v>163</v>
-      </c>
-      <c r="F84" t="s">
-        <v>164</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4986,10 +4959,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>164</v>
+      </c>
+      <c r="F86" t="s">
         <v>165</v>
-      </c>
-      <c r="F86" t="s">
-        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -5015,10 +4988,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>166</v>
+      </c>
+      <c r="F87" t="s">
         <v>167</v>
-      </c>
-      <c r="F87" t="s">
-        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5044,10 +5017,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>168</v>
+      </c>
+      <c r="F88" t="s">
         <v>169</v>
-      </c>
-      <c r="F88" t="s">
-        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5073,10 +5046,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" t="s">
         <v>171</v>
-      </c>
-      <c r="F89" t="s">
-        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>2</v>
@@ -5102,10 +5075,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>172</v>
+      </c>
+      <c r="F90" t="s">
         <v>173</v>
-      </c>
-      <c r="F90" t="s">
-        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -5131,10 +5104,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>174</v>
+      </c>
+      <c r="F91" t="s">
         <v>175</v>
-      </c>
-      <c r="F91" t="s">
-        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5160,10 +5133,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>176</v>
+      </c>
+      <c r="F92" t="s">
         <v>177</v>
-      </c>
-      <c r="F92" t="s">
-        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5189,10 +5162,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>178</v>
+      </c>
+      <c r="F93" t="s">
         <v>179</v>
-      </c>
-      <c r="F93" t="s">
-        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5218,10 +5191,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>180</v>
+      </c>
+      <c r="F94" t="s">
         <v>181</v>
-      </c>
-      <c r="F94" t="s">
-        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -5247,10 +5220,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>182</v>
+      </c>
+      <c r="F95" t="s">
         <v>183</v>
-      </c>
-      <c r="F95" t="s">
-        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5276,10 +5249,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>184</v>
+      </c>
+      <c r="F96" t="s">
         <v>185</v>
-      </c>
-      <c r="F96" t="s">
-        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>3</v>
@@ -5305,10 +5278,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>186</v>
+      </c>
+      <c r="F97" t="s">
         <v>187</v>
-      </c>
-      <c r="F97" t="s">
-        <v>188</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5334,10 +5307,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>188</v>
+      </c>
+      <c r="F98" t="s">
         <v>189</v>
-      </c>
-      <c r="F98" t="s">
-        <v>190</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5363,10 +5336,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" t="s">
         <v>191</v>
-      </c>
-      <c r="F99" t="s">
-        <v>192</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5392,10 +5365,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>192</v>
+      </c>
+      <c r="F100" t="s">
         <v>193</v>
-      </c>
-      <c r="F100" t="s">
-        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>2</v>
@@ -5421,10 +5394,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>194</v>
+      </c>
+      <c r="F101" t="s">
         <v>195</v>
-      </c>
-      <c r="F101" t="s">
-        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5450,10 +5423,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" t="s">
         <v>197</v>
-      </c>
-      <c r="F102" t="s">
-        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5479,10 +5452,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>198</v>
+      </c>
+      <c r="F103" t="s">
         <v>199</v>
-      </c>
-      <c r="F103" t="s">
-        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5508,10 +5481,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>200</v>
+      </c>
+      <c r="F104" t="s">
         <v>201</v>
-      </c>
-      <c r="F104" t="s">
-        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5537,10 +5510,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" t="s">
         <v>203</v>
-      </c>
-      <c r="F105" t="s">
-        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -5566,10 +5539,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>204</v>
+      </c>
+      <c r="F106" t="s">
         <v>205</v>
-      </c>
-      <c r="F106" t="s">
-        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5595,10 +5568,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>206</v>
+      </c>
+      <c r="F107" t="s">
         <v>207</v>
-      </c>
-      <c r="F107" t="s">
-        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5624,10 +5597,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>208</v>
+      </c>
+      <c r="F108" t="s">
         <v>209</v>
-      </c>
-      <c r="F108" t="s">
-        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5653,10 +5626,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>210</v>
+      </c>
+      <c r="F109" t="s">
         <v>211</v>
-      </c>
-      <c r="F109" t="s">
-        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5682,10 +5655,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>212</v>
+      </c>
+      <c r="F110" t="s">
         <v>213</v>
-      </c>
-      <c r="F110" t="s">
-        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5711,10 +5684,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>214</v>
+      </c>
+      <c r="F111" t="s">
         <v>215</v>
-      </c>
-      <c r="F111" t="s">
-        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5740,10 +5713,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>216</v>
+      </c>
+      <c r="F112" t="s">
         <v>217</v>
-      </c>
-      <c r="F112" t="s">
-        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5769,10 +5742,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>218</v>
+      </c>
+      <c r="F113" t="s">
         <v>219</v>
-      </c>
-      <c r="F113" t="s">
-        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5798,10 +5771,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>220</v>
+      </c>
+      <c r="F114" t="s">
         <v>221</v>
-      </c>
-      <c r="F114" t="s">
-        <v>222</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5827,10 +5800,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>222</v>
+      </c>
+      <c r="F115" t="s">
         <v>223</v>
-      </c>
-      <c r="F115" t="s">
-        <v>224</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5856,10 +5829,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>224</v>
+      </c>
+      <c r="F116" t="s">
         <v>225</v>
-      </c>
-      <c r="F116" t="s">
-        <v>226</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5885,10 +5858,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>226</v>
+      </c>
+      <c r="F117" t="s">
         <v>227</v>
-      </c>
-      <c r="F117" t="s">
-        <v>228</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5914,10 +5887,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>228</v>
+      </c>
+      <c r="F118" t="s">
         <v>229</v>
-      </c>
-      <c r="F118" t="s">
-        <v>230</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5943,10 +5916,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>230</v>
+      </c>
+      <c r="F119" t="s">
         <v>231</v>
-      </c>
-      <c r="F119" t="s">
-        <v>232</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5972,10 +5945,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>232</v>
+      </c>
+      <c r="F120" t="s">
         <v>233</v>
-      </c>
-      <c r="F120" t="s">
-        <v>234</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6001,10 +5974,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>122</v>
+      </c>
+      <c r="F121" t="s">
         <v>123</v>
-      </c>
-      <c r="F121" t="s">
-        <v>124</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6030,10 +6003,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>178</v>
+      </c>
+      <c r="F122" t="s">
         <v>179</v>
-      </c>
-      <c r="F122" t="s">
-        <v>180</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -6059,10 +6032,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6088,10 +6061,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6117,10 +6090,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6146,10 +6119,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6175,10 +6148,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6204,10 +6177,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6233,10 +6206,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6262,10 +6235,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6291,10 +6264,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6320,10 +6293,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
-      </c>
-      <c r="F132" t="s">
-        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6349,10 +6322,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6378,10 +6351,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6407,10 +6380,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6436,10 +6409,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
         <v>261</v>
-      </c>
-      <c r="F136" t="s">
-        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6465,10 +6438,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" t="s">
         <v>263</v>
-      </c>
-      <c r="F137" t="s">
-        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6494,10 +6467,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" t="s">
         <v>265</v>
-      </c>
-      <c r="F138" t="s">
-        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6523,10 +6496,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>266</v>
+      </c>
+      <c r="F139" t="s">
         <v>267</v>
-      </c>
-      <c r="F139" t="s">
-        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6552,10 +6525,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" t="s">
         <v>269</v>
-      </c>
-      <c r="F140" t="s">
-        <v>270</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6581,10 +6554,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>270</v>
+      </c>
+      <c r="F141" t="s">
         <v>271</v>
-      </c>
-      <c r="F141" t="s">
-        <v>272</v>
       </c>
       <c r="G141" t="n">
         <v>7</v>
@@ -6610,10 +6583,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>272</v>
+      </c>
+      <c r="F142" t="s">
         <v>273</v>
-      </c>
-      <c r="F142" t="s">
-        <v>274</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6639,10 +6612,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>274</v>
+      </c>
+      <c r="F143" t="s">
         <v>275</v>
-      </c>
-      <c r="F143" t="s">
-        <v>276</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6668,10 +6641,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>276</v>
+      </c>
+      <c r="F144" t="s">
         <v>277</v>
-      </c>
-      <c r="F144" t="s">
-        <v>278</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6697,10 +6670,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>278</v>
+      </c>
+      <c r="F145" t="s">
         <v>279</v>
-      </c>
-      <c r="F145" t="s">
-        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6726,10 +6699,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>280</v>
+      </c>
+      <c r="F146" t="s">
         <v>281</v>
-      </c>
-      <c r="F146" t="s">
-        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6755,10 +6728,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>282</v>
+      </c>
+      <c r="F147" t="s">
         <v>283</v>
-      </c>
-      <c r="F147" t="s">
-        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6784,10 +6757,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>284</v>
+      </c>
+      <c r="F148" t="s">
         <v>285</v>
-      </c>
-      <c r="F148" t="s">
-        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6813,10 +6786,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>286</v>
+      </c>
+      <c r="F149" t="s">
         <v>287</v>
-      </c>
-      <c r="F149" t="s">
-        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6842,10 +6815,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>288</v>
+      </c>
+      <c r="F150" t="s">
         <v>289</v>
-      </c>
-      <c r="F150" t="s">
-        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6871,10 +6844,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>290</v>
+      </c>
+      <c r="F151" t="s">
         <v>291</v>
-      </c>
-      <c r="F151" t="s">
-        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6900,10 +6873,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>292</v>
+      </c>
+      <c r="F152" t="s">
         <v>293</v>
-      </c>
-      <c r="F152" t="s">
-        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6929,10 +6902,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>294</v>
+      </c>
+      <c r="F153" t="s">
         <v>295</v>
-      </c>
-      <c r="F153" t="s">
-        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>5</v>
@@ -6958,10 +6931,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>296</v>
+      </c>
+      <c r="F154" t="s">
         <v>297</v>
-      </c>
-      <c r="F154" t="s">
-        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>14</v>
@@ -6987,10 +6960,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>298</v>
+      </c>
+      <c r="F155" t="s">
         <v>299</v>
-      </c>
-      <c r="F155" t="s">
-        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -7016,10 +6989,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>300</v>
+      </c>
+      <c r="F156" t="s">
         <v>301</v>
-      </c>
-      <c r="F156" t="s">
-        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7045,10 +7018,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>137</v>
       </c>
       <c r="G157" t="n">
         <v>3</v>
@@ -7074,10 +7047,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F158" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G158" t="n">
         <v>10</v>
@@ -7103,10 +7076,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>96</v>
+      </c>
+      <c r="F159" t="s">
         <v>97</v>
-      </c>
-      <c r="F159" t="s">
-        <v>98</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7132,10 +7105,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G160" t="n">
         <v>4</v>
@@ -7161,10 +7134,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7190,10 +7163,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -7219,10 +7192,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>105</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -7248,10 +7221,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G164" t="n">
         <v>3</v>
@@ -7277,10 +7250,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7306,10 +7279,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7335,10 +7308,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7364,10 +7337,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -7393,10 +7366,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7422,10 +7395,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7451,10 +7424,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -7480,10 +7453,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G172" t="n">
         <v>4</v>
@@ -7509,10 +7482,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7538,10 +7511,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7567,10 +7540,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7596,10 +7569,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7625,10 +7598,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -7654,10 +7627,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -7683,10 +7656,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="G179" t="n">
         <v>3</v>
@@ -7712,10 +7685,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7741,10 +7714,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G181" t="n">
         <v>3</v>
@@ -7770,10 +7743,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -7799,10 +7772,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7828,10 +7801,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -7857,10 +7830,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -7886,10 +7859,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7915,10 +7888,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G187" t="n">
         <v>3</v>
@@ -7944,10 +7917,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7973,10 +7946,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G189" t="n">
         <v>2</v>
@@ -8002,10 +7975,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G190" t="n">
         <v>3</v>
@@ -8031,10 +8004,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8060,10 +8033,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8089,10 +8062,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8118,10 +8091,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8147,10 +8120,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8176,10 +8149,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8205,10 +8178,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8234,10 +8207,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8263,10 +8236,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8292,10 +8265,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8321,10 +8294,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8350,10 +8323,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8379,10 +8352,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8408,10 +8381,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8437,10 +8410,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8466,10 +8439,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F206" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8495,10 +8468,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8524,10 +8497,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F208" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8553,10 +8526,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8582,10 +8555,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8611,10 +8584,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8640,10 +8613,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8669,10 +8642,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8698,10 +8671,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="G214" t="n">
         <v>3</v>
@@ -8727,10 +8700,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F215" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G215" t="n">
         <v>2</v>
@@ -8756,10 +8729,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F216" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8785,10 +8758,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -8814,10 +8787,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8843,10 +8816,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8872,10 +8845,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8901,10 +8874,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8930,10 +8903,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="F222" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8959,10 +8932,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -8988,10 +8961,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9017,10 +8990,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9046,10 +9019,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9075,10 +9048,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9104,10 +9077,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>308</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -9133,10 +9106,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9162,10 +9135,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9191,10 +9164,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>345</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9220,10 +9193,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9249,10 +9222,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9278,10 +9251,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9307,10 +9280,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9336,10 +9309,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9365,10 +9338,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9394,10 +9367,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G238" t="n">
         <v>2</v>
@@ -9423,10 +9396,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9452,10 +9425,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9481,10 +9454,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>351</v>
       </c>
       <c r="G241" t="n">
         <v>2</v>
@@ -9510,10 +9483,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9539,10 +9512,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9568,10 +9541,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G244" t="n">
         <v>2</v>
@@ -9597,10 +9570,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9626,10 +9599,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G246" t="n">
         <v>2</v>
@@ -9655,10 +9628,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9684,10 +9657,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -9713,10 +9686,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F249" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9742,10 +9715,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F250" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9771,10 +9744,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F251" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9800,10 +9773,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F252" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9829,10 +9802,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F253" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9858,10 +9831,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F254" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9887,10 +9860,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F255" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9916,10 +9889,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9945,10 +9918,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>502</v>
+        <v>103</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -9974,10 +9947,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="F258" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="G258" t="n">
         <v>4</v>
@@ -10003,10 +9976,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="F259" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10032,10 +10005,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="F260" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10061,10 +10034,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F261" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10090,10 +10063,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="F262" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10119,10 +10092,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F263" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10148,10 +10121,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="F264" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10177,10 +10150,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F265" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10206,10 +10179,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="F266" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10235,10 +10208,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="F267" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10264,10 +10237,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="F268" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10293,10 +10266,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="F269" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10322,10 +10295,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F270" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10351,10 +10324,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F271" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10380,10 +10353,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F272" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10409,10 +10382,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="F273" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10438,10 +10411,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F274" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10467,10 +10440,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F275" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10496,10 +10469,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="F276" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10525,10 +10498,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F277" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10554,10 +10527,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="F278" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10583,10 +10556,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="F279" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10612,10 +10585,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F280" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10641,10 +10614,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="F281" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="G281" t="n">
         <v>2</v>
@@ -10670,10 +10643,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="F282" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10699,10 +10672,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="F283" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10728,10 +10701,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="F284" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10757,10 +10730,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="F285" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10786,10 +10759,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="F286" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10815,10 +10788,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="F287" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10844,10 +10817,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="F288" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10873,10 +10846,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="F289" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10902,10 +10875,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="F290" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10931,10 +10904,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F291" t="s">
-        <v>570</v>
+        <v>357</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -10960,10 +10933,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F292" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="G292" t="n">
         <v>2</v>
@@ -10989,10 +10962,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="F293" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11018,10 +10991,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F294" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11047,10 +11020,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F295" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11076,10 +11049,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F296" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11105,10 +11078,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="F297" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="G297" t="n">
         <v>2</v>
@@ -11134,10 +11107,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="F298" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11163,10 +11136,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F299" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11192,10 +11165,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F300" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11221,10 +11194,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F301" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11250,10 +11223,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F302" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11279,10 +11252,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F303" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11308,10 +11281,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F304" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11337,10 +11310,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F305" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11366,10 +11339,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F306" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11395,10 +11368,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F307" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11424,10 +11397,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11453,10 +11426,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11482,10 +11455,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11511,10 +11484,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11540,10 +11513,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11569,10 +11542,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11598,10 +11571,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11627,10 +11600,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11656,10 +11629,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11685,10 +11658,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11714,10 +11687,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11743,10 +11716,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11772,10 +11745,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11801,10 +11774,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11830,10 +11803,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11859,10 +11832,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11888,10 +11861,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11917,10 +11890,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -11946,10 +11919,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="F326" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -11975,10 +11948,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="F327" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12004,10 +11977,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="F328" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12033,10 +12006,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F329" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12062,10 +12035,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12091,10 +12064,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12120,10 +12093,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12149,10 +12122,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12178,10 +12151,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12207,10 +12180,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="F335" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12236,10 +12209,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="F336" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12265,10 +12238,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F337" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12294,10 +12267,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F338" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12323,10 +12296,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="F339" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12352,10 +12325,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="F340" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="G340" t="n">
         <v>2</v>
@@ -12381,10 +12354,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F341" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12410,10 +12383,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="F342" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12439,10 +12412,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="F343" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="G343" t="n">
         <v>2</v>
@@ -12468,10 +12441,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="F344" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12497,10 +12470,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F345" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12526,10 +12499,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="F346" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12555,10 +12528,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="F347" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12584,10 +12557,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12613,10 +12586,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12642,10 +12615,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12671,10 +12644,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>363</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12700,10 +12673,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12729,10 +12702,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="F353" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12758,10 +12731,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="F354" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12787,10 +12760,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="F355" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12816,10 +12789,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="F356" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12845,10 +12818,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F357" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12874,10 +12847,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="F358" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G358" t="n">
         <v>3</v>
@@ -12903,10 +12876,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F359" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12932,10 +12905,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="F360" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -12961,10 +12934,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="F361" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -12990,10 +12963,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F362" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13019,10 +12992,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="F363" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13048,10 +13021,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="F364" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13077,10 +13050,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="G365" t="n">
         <v>3</v>

--- a/xlsx/洪都拉斯_intext.xlsx
+++ b/xlsx/洪都拉斯_intext.xlsx
@@ -29,7 +29,7 @@
     <t>洪都拉斯 (藝人)</t>
   </si>
   <si>
-    <t>政策_政策_美國_洪都拉斯</t>
+    <t>体育运动_体育运动_伊朗_洪都拉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E9%83%BD%E6%8B%89%E6%96%AF%E5%9C%8B%E6%97%97</t>
